--- a/project-73.xlsx
+++ b/project-73.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandip\Desktop\Batch-73\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D5FBC0-97F9-458F-832B-6B9CAD09D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F66675-239E-48B1-A25B-F16D4BC7F548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-285" yWindow="1590" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Batch-1</t>
   </si>
@@ -133,13 +133,52 @@
   </si>
   <si>
     <t>Phani</t>
+  </si>
+  <si>
+    <t>Cplayer APP</t>
+  </si>
+  <si>
+    <t>MUZIX APP</t>
+  </si>
+  <si>
+    <t>WALMART APP</t>
+  </si>
+  <si>
+    <t>NEWS APP</t>
+  </si>
+  <si>
+    <t>TRANSPORT APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Design </t>
+  </si>
+  <si>
+    <t>2)Document</t>
+  </si>
+  <si>
+    <t>usecase,DFD,class,forms,tables</t>
+  </si>
+  <si>
+    <t>Modification in the abstract,s/w requirements</t>
+  </si>
+  <si>
+    <t>3)coding</t>
+  </si>
+  <si>
+    <t>4)testing</t>
+  </si>
+  <si>
+    <t>junit testing</t>
+  </si>
+  <si>
+    <t>WEATHER APP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +196,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,12 +255,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +558,7 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,12 +698,54 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/project-73.xlsx
+++ b/project-73.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandip\Desktop\Batch-73\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F66675-239E-48B1-A25B-F16D4BC7F548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CCA0D-FED2-4EA1-9389-CE7CFA96868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project-73.xlsx
+++ b/project-73.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandip\Desktop\Batch-73\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CCA0D-FED2-4EA1-9389-CE7CFA96868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD48C6C-E359-4854-B7C7-7134D603A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Batch-1</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>WEATHER APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishna </t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,9 +687,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/project-73.xlsx
+++ b/project-73.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandip\Desktop\Batch-73\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD48C6C-E359-4854-B7C7-7134D603A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C0CB67-5854-466B-A884-7730719DB6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Batch-1</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t xml:space="preserve">Krishna </t>
+  </si>
+  <si>
+    <t>Today,Tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram </t>
+  </si>
+  <si>
+    <t>Maneesh</t>
+  </si>
+  <si>
+    <t>goutham Allu</t>
   </si>
 </sst>
 </file>
@@ -212,12 +224,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -258,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -269,6 +287,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +572,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,12 +706,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -722,11 +749,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>43</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/project-73.xlsx
+++ b/project-73.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandip\Desktop\Batch-73\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C0CB67-5854-466B-A884-7730719DB6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3B95A0-9C7F-40A5-936A-4986BF3AED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Batch-1</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>goutham Allu</t>
+  </si>
+  <si>
+    <t>saivamsi</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +718,12 @@
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
